--- a/scripts/Monitoramento/outputs/GRS/0 - Monitoramento Form 1, 2 e 3.xlsx
+++ b/scripts/Monitoramento/outputs/GRS/0 - Monitoramento Form 1, 2 e 3.xlsx
@@ -287,12 +287,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6400"/>
-        <bgColor rgb="FFFF6400"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF6666"/>
         <bgColor rgb="FFFF6666"/>
       </patternFill>
@@ -307,6 +301,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCC0DA"/>
         <bgColor rgb="FFCCC0DA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6400"/>
+        <bgColor rgb="FFFF6400"/>
       </patternFill>
     </fill>
     <fill>
@@ -688,10 +688,10 @@
     <xf numFmtId="0" fontId="14" fillId="28" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="42" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -11176,12 +11176,16 @@
           <t>Marlene R. Oliveira Dallacosta</t>
         </is>
       </c>
-      <c r="E34" s="49" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F34" s="43" t="n"/>
+      <c r="E34" s="44" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F34" s="43" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
       <c r="G34" s="47" t="inlineStr">
         <is>
           <t>Não</t>
@@ -11718,7 +11722,7 @@
       </c>
       <c r="D46" s="43" t="inlineStr">
         <is>
-          <t>Natielly Pereira Ochoa</t>
+          <t>Rafael Henrique Caetano</t>
         </is>
       </c>
       <c r="E46" s="44" t="inlineStr">
@@ -14390,12 +14394,16 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B34&amp;C34, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B34&amp;C34, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E34" s="49" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F34" s="43" t="n"/>
+      <c r="E34" s="44" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F34" s="43" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
       <c r="G34" s="55" t="inlineStr">
         <is>
           <t>Não</t>
@@ -15032,7 +15040,11 @@
           <t>Verificar Equipamentos I - vocês não possuem prensa HORIZONTAL, trocar para VERTICAL. e até onde me lembro uma está quebrada para manutenção, ou não?; esteiras - não possuem esteira de triagem elevada (está como elevação, mas vai ser corrigido), retirar; em outros - mesa de triagem, seria de eletronicos, se tiver mantem, se não, retirar.</t>
         </is>
       </c>
-      <c r="I49" s="43" t="n"/>
+      <c r="I49" s="43" t="inlineStr">
+        <is>
+          <t>ID215</t>
+        </is>
+      </c>
       <c r="J49" s="43" t="inlineStr">
         <is>
           <t>Não</t>
@@ -16119,12 +16131,16 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B2&amp;C2, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B2&amp;C2, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="49" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F2" s="43" t="n"/>
+      <c r="E2" s="44" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F2" s="43" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
       <c r="G2" s="55" t="inlineStr">
         <is>
           <t>Não</t>
@@ -17487,18 +17503,26 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B34&amp;C34, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B34&amp;C34, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E34" s="49" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F34" s="43" t="n"/>
+      <c r="E34" s="44" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F34" s="43" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
       <c r="G34" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
       </c>
-      <c r="H34" s="43" t="n"/>
+      <c r="H34" s="43" t="inlineStr">
+        <is>
+          <t>falta anexar documentos</t>
+        </is>
+      </c>
       <c r="I34" s="43" t="n"/>
       <c r="J34" s="43" t="inlineStr">
         <is>

--- a/scripts/Monitoramento/outputs/GRS/0 - Monitoramento Form 1, 2 e 3.xlsx
+++ b/scripts/Monitoramento/outputs/GRS/0 - Monitoramento Form 1, 2 e 3.xlsx
@@ -554,7 +554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -702,6 +702,10 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="43" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="37" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10147,9 +10151,9 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="H11" s="43" t="inlineStr">
-        <is>
-          <t>excluir ID 164</t>
+      <c r="H11" s="52" t="inlineStr">
+        <is>
+          <t>excluir ID 164  - irá excluir todas pelo menos é o que foi informado</t>
         </is>
       </c>
       <c r="I11" s="43" t="n"/>
@@ -10195,7 +10199,11 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="H12" s="43" t="n"/>
+      <c r="H12" s="52" t="inlineStr">
+        <is>
+          <t>excluir ID 164</t>
+        </is>
+      </c>
       <c r="I12" s="43" t="n"/>
       <c r="J12" s="43" t="n"/>
       <c r="K12" s="43" t="inlineStr">
@@ -10239,7 +10247,11 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="H13" s="43" t="n"/>
+      <c r="H13" s="52" t="inlineStr">
+        <is>
+          <t>excluir ID 164</t>
+        </is>
+      </c>
       <c r="I13" s="43" t="n"/>
       <c r="J13" s="43" t="n"/>
       <c r="K13" s="43" t="inlineStr">
@@ -10283,7 +10295,11 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="H14" s="43" t="n"/>
+      <c r="H14" s="53" t="inlineStr">
+        <is>
+          <t>excluir ID 164</t>
+        </is>
+      </c>
       <c r="I14" s="43" t="n"/>
       <c r="J14" s="43" t="n"/>
       <c r="K14" s="43" t="inlineStr">
@@ -10327,7 +10343,11 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="H15" s="43" t="n"/>
+      <c r="H15" s="52" t="inlineStr">
+        <is>
+          <t>excluir ID 164</t>
+        </is>
+      </c>
       <c r="I15" s="43" t="n"/>
       <c r="J15" s="43" t="n"/>
       <c r="K15" s="43" t="inlineStr">
@@ -10367,7 +10387,11 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="H16" s="43" t="n"/>
+      <c r="H16" s="52" t="inlineStr">
+        <is>
+          <t>excluir ID 164</t>
+        </is>
+      </c>
       <c r="I16" s="43" t="n"/>
       <c r="J16" s="43" t="n"/>
       <c r="K16" s="43" t="inlineStr">
@@ -10510,7 +10534,7 @@
       <c r="L19" s="43" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="52" t="inlineStr">
+      <c r="A20" s="54" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -10598,7 +10622,7 @@
       <c r="L21" s="43" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="52" t="inlineStr">
+      <c r="A22" s="54" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -10690,7 +10714,7 @@
       <c r="L23" s="43" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="53" t="inlineStr">
+      <c r="A24" s="55" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -10734,7 +10758,7 @@
       <c r="L24" s="43" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="53" t="inlineStr">
+      <c r="A25" s="55" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -10782,7 +10806,7 @@
       <c r="L25" s="43" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="53" t="inlineStr">
+      <c r="A26" s="55" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -10830,7 +10854,7 @@
       <c r="L26" s="43" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="53" t="inlineStr">
+      <c r="A27" s="55" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -10878,7 +10902,7 @@
       <c r="L27" s="43" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="53" t="inlineStr">
+      <c r="A28" s="55" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -10926,7 +10950,7 @@
       <c r="L28" s="43" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="53" t="inlineStr">
+      <c r="A29" s="55" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -10974,7 +10998,7 @@
       <c r="L29" s="43" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="53" t="inlineStr">
+      <c r="A30" s="55" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -11022,7 +11046,7 @@
       <c r="L30" s="43" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="53" t="inlineStr">
+      <c r="A31" s="55" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -11070,7 +11094,7 @@
       <c r="L31" s="43" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="53" t="inlineStr">
+      <c r="A32" s="55" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -11403,7 +11427,7 @@
       <c r="L38" s="43" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="52" t="inlineStr">
+      <c r="A39" s="54" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -11531,7 +11555,7 @@
       <c r="L41" s="43" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="52" t="inlineStr">
+      <c r="A42" s="54" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -11575,7 +11599,7 @@
       <c r="L42" s="43" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="52" t="inlineStr">
+      <c r="A43" s="54" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -11663,7 +11687,7 @@
       <c r="L44" s="43" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="52" t="inlineStr">
+      <c r="A45" s="54" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -11707,7 +11731,7 @@
       <c r="L45" s="43" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="53" t="inlineStr">
+      <c r="A46" s="55" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -11799,7 +11823,7 @@
       <c r="L47" s="43" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="52" t="inlineStr">
+      <c r="A48" s="54" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -12079,7 +12103,7 @@
       <c r="L53" s="43" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="52" t="inlineStr">
+      <c r="A54" s="54" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -12175,7 +12199,7 @@
       <c r="L55" s="43" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="52" t="inlineStr">
+      <c r="A56" s="54" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -12219,7 +12243,7 @@
       <c r="L56" s="43" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="52" t="inlineStr">
+      <c r="A57" s="54" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -12347,7 +12371,7 @@
       <c r="L59" s="43" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="53" t="inlineStr">
+      <c r="A60" s="55" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -12443,7 +12467,7 @@
       <c r="L61" s="43" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="53" t="inlineStr">
+      <c r="A62" s="55" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -12491,7 +12515,7 @@
       <c r="L62" s="43" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="52" t="inlineStr">
+      <c r="A63" s="54" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -12535,7 +12559,7 @@
       <c r="L63" s="43" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="53" t="inlineStr">
+      <c r="A64" s="55" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -12819,7 +12843,7 @@
       <c r="L69" s="43" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" s="52" t="inlineStr">
+      <c r="A70" s="54" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -13024,7 +13048,7 @@
           <t>06/02/2025</t>
         </is>
       </c>
-      <c r="G2" s="54" t="inlineStr">
+      <c r="G2" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13070,7 +13094,7 @@
           <t>20/03/2025</t>
         </is>
       </c>
-      <c r="G3" s="54" t="inlineStr">
+      <c r="G3" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13116,7 +13140,7 @@
           <t>21/07/2025</t>
         </is>
       </c>
-      <c r="G4" s="54" t="inlineStr">
+      <c r="G4" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13162,7 +13186,7 @@
           <t>27/03/2025</t>
         </is>
       </c>
-      <c r="G5" s="54" t="inlineStr">
+      <c r="G5" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13208,7 +13232,7 @@
           <t>09/04/2025</t>
         </is>
       </c>
-      <c r="G6" s="55" t="inlineStr">
+      <c r="G6" s="57" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -13250,7 +13274,7 @@
           <t>21/03/2025</t>
         </is>
       </c>
-      <c r="G7" s="54" t="inlineStr">
+      <c r="G7" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13296,9 +13320,9 @@
           <t>20/03/2025</t>
         </is>
       </c>
-      <c r="G8" s="55" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G8" s="56" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H8" s="43" t="n"/>
@@ -13334,7 +13358,7 @@
         </is>
       </c>
       <c r="F9" s="43" t="n"/>
-      <c r="G9" s="55" t="inlineStr">
+      <c r="G9" s="57" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -13376,7 +13400,7 @@
           <t>07/03/2025</t>
         </is>
       </c>
-      <c r="G10" s="54" t="inlineStr">
+      <c r="G10" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13418,7 +13442,7 @@
           <t>10/04/2025</t>
         </is>
       </c>
-      <c r="G11" s="54" t="inlineStr">
+      <c r="G11" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13460,7 +13484,7 @@
           <t>10/04/2025</t>
         </is>
       </c>
-      <c r="G12" s="54" t="inlineStr">
+      <c r="G12" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13502,7 +13526,7 @@
           <t>09/07/2025</t>
         </is>
       </c>
-      <c r="G13" s="54" t="inlineStr">
+      <c r="G13" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13544,7 +13568,7 @@
           <t>10/04/2025, 10/04/2025, 09/05/2025, 10/06/2025</t>
         </is>
       </c>
-      <c r="G14" s="54" t="inlineStr">
+      <c r="G14" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13590,7 +13614,7 @@
           <t>11/04/2025</t>
         </is>
       </c>
-      <c r="G15" s="54" t="inlineStr">
+      <c r="G15" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13632,7 +13656,7 @@
           <t>20/05/2025</t>
         </is>
       </c>
-      <c r="G16" s="54" t="inlineStr">
+      <c r="G16" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13674,7 +13698,7 @@
           <t>21/03/2025</t>
         </is>
       </c>
-      <c r="G17" s="54" t="inlineStr">
+      <c r="G17" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13716,7 +13740,7 @@
           <t>22/08/2025</t>
         </is>
       </c>
-      <c r="G18" s="54" t="inlineStr">
+      <c r="G18" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13754,7 +13778,7 @@
         </is>
       </c>
       <c r="F19" s="43" t="n"/>
-      <c r="G19" s="55" t="inlineStr">
+      <c r="G19" s="57" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -13796,7 +13820,7 @@
           <t>10/03/2025</t>
         </is>
       </c>
-      <c r="G20" s="54" t="inlineStr">
+      <c r="G20" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13811,7 +13835,7 @@
       <c r="K20" s="43" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="52" t="inlineStr">
+      <c r="A21" s="54" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -13838,7 +13862,7 @@
           <t>20/03/2025</t>
         </is>
       </c>
-      <c r="G21" s="54" t="inlineStr">
+      <c r="G21" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13853,7 +13877,7 @@
       <c r="K21" s="43" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="52" t="inlineStr">
+      <c r="A22" s="54" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -13880,7 +13904,7 @@
           <t>10/07/2025</t>
         </is>
       </c>
-      <c r="G22" s="54" t="inlineStr">
+      <c r="G22" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13922,7 +13946,7 @@
           <t>06/05/2025</t>
         </is>
       </c>
-      <c r="G23" s="55" t="inlineStr">
+      <c r="G23" s="57" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -13937,7 +13961,7 @@
       <c r="K23" s="43" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="53" t="inlineStr">
+      <c r="A24" s="55" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -13964,7 +13988,7 @@
           <t>25/09/2025</t>
         </is>
       </c>
-      <c r="G24" s="55" t="inlineStr">
+      <c r="G24" s="57" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -13979,7 +14003,7 @@
       <c r="K24" s="43" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="53" t="inlineStr">
+      <c r="A25" s="55" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -14006,7 +14030,7 @@
           <t>15/07/2025</t>
         </is>
       </c>
-      <c r="G25" s="54" t="inlineStr">
+      <c r="G25" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14025,7 +14049,7 @@
       <c r="K25" s="43" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="53" t="inlineStr">
+      <c r="A26" s="55" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -14052,7 +14076,7 @@
           <t>14/04/2025</t>
         </is>
       </c>
-      <c r="G26" s="54" t="inlineStr">
+      <c r="G26" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14071,7 +14095,7 @@
       <c r="K26" s="43" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="53" t="inlineStr">
+      <c r="A27" s="55" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -14098,7 +14122,7 @@
           <t>10/04/2025</t>
         </is>
       </c>
-      <c r="G27" s="54" t="inlineStr">
+      <c r="G27" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14117,7 +14141,7 @@
       <c r="K27" s="43" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="53" t="inlineStr">
+      <c r="A28" s="55" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -14144,7 +14168,7 @@
           <t>03/07/2025</t>
         </is>
       </c>
-      <c r="G28" s="54" t="inlineStr">
+      <c r="G28" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14159,7 +14183,7 @@
       <c r="K28" s="43" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="53" t="inlineStr">
+      <c r="A29" s="55" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -14186,7 +14210,7 @@
           <t>20/03/2025</t>
         </is>
       </c>
-      <c r="G29" s="54" t="inlineStr">
+      <c r="G29" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14205,7 +14229,7 @@
       <c r="K29" s="43" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="53" t="inlineStr">
+      <c r="A30" s="55" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -14232,7 +14256,7 @@
           <t>27/03/2025</t>
         </is>
       </c>
-      <c r="G30" s="54" t="inlineStr">
+      <c r="G30" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14251,7 +14275,7 @@
       <c r="K30" s="43" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="53" t="inlineStr">
+      <c r="A31" s="55" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -14278,7 +14302,7 @@
           <t>25/03/2025</t>
         </is>
       </c>
-      <c r="G31" s="54" t="inlineStr">
+      <c r="G31" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14297,7 +14321,7 @@
       <c r="K31" s="43" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="53" t="inlineStr">
+      <c r="A32" s="55" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -14324,7 +14348,7 @@
           <t>16/07/2025</t>
         </is>
       </c>
-      <c r="G32" s="54" t="inlineStr">
+      <c r="G32" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14362,7 +14386,7 @@
         </is>
       </c>
       <c r="F33" s="43" t="n"/>
-      <c r="G33" s="55" t="inlineStr">
+      <c r="G33" s="57" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -14404,7 +14428,7 @@
           <t>09/12/2025</t>
         </is>
       </c>
-      <c r="G34" s="55" t="inlineStr">
+      <c r="G34" s="57" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -14446,7 +14470,7 @@
           <t>08/03/2025</t>
         </is>
       </c>
-      <c r="G35" s="54" t="inlineStr">
+      <c r="G35" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14488,7 +14512,7 @@
           <t>24/03/2025</t>
         </is>
       </c>
-      <c r="G36" s="54" t="inlineStr">
+      <c r="G36" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14530,7 +14554,7 @@
           <t>28/02/2025</t>
         </is>
       </c>
-      <c r="G37" s="54" t="inlineStr">
+      <c r="G37" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14572,7 +14596,7 @@
           <t>19/03/2025</t>
         </is>
       </c>
-      <c r="G38" s="55" t="inlineStr">
+      <c r="G38" s="57" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -14587,7 +14611,7 @@
       <c r="K38" s="43" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="52" t="inlineStr">
+      <c r="A39" s="54" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -14614,7 +14638,7 @@
           <t>27/03/2025</t>
         </is>
       </c>
-      <c r="G39" s="54" t="inlineStr">
+      <c r="G39" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14652,7 +14676,7 @@
         </is>
       </c>
       <c r="F40" s="43" t="n"/>
-      <c r="G40" s="55" t="inlineStr">
+      <c r="G40" s="57" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -14690,7 +14714,7 @@
         </is>
       </c>
       <c r="F41" s="43" t="n"/>
-      <c r="G41" s="55" t="inlineStr">
+      <c r="G41" s="57" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -14705,7 +14729,7 @@
       <c r="K41" s="43" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="52" t="inlineStr">
+      <c r="A42" s="54" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -14732,7 +14756,7 @@
           <t>04/04/2025</t>
         </is>
       </c>
-      <c r="G42" s="54" t="inlineStr">
+      <c r="G42" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14747,7 +14771,7 @@
       <c r="K42" s="43" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="52" t="inlineStr">
+      <c r="A43" s="54" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -14774,7 +14798,7 @@
           <t>04/04/2025</t>
         </is>
       </c>
-      <c r="G43" s="54" t="inlineStr">
+      <c r="G43" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14816,7 +14840,7 @@
           <t>11/11/2025</t>
         </is>
       </c>
-      <c r="G44" s="55" t="inlineStr">
+      <c r="G44" s="57" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -14831,7 +14855,7 @@
       <c r="K44" s="43" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="52" t="inlineStr">
+      <c r="A45" s="54" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -14858,7 +14882,7 @@
           <t>02/04/2025</t>
         </is>
       </c>
-      <c r="G45" s="54" t="inlineStr">
+      <c r="G45" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14873,7 +14897,7 @@
       <c r="K45" s="43" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="53" t="inlineStr">
+      <c r="A46" s="55" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -14900,7 +14924,7 @@
           <t>11/03/2025</t>
         </is>
       </c>
-      <c r="G46" s="54" t="inlineStr">
+      <c r="G46" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14946,7 +14970,7 @@
           <t>26/11/2025</t>
         </is>
       </c>
-      <c r="G47" s="55" t="inlineStr">
+      <c r="G47" s="57" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -14961,7 +14985,7 @@
       <c r="K47" s="43" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="52" t="inlineStr">
+      <c r="A48" s="54" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -14988,7 +15012,7 @@
           <t>12/03/2025</t>
         </is>
       </c>
-      <c r="G48" s="54" t="inlineStr">
+      <c r="G48" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -15030,7 +15054,7 @@
           <t>06/08/2025, 20/08/2025</t>
         </is>
       </c>
-      <c r="G49" s="55" t="inlineStr">
+      <c r="G49" s="57" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -15080,13 +15104,17 @@
           <t>16/04/2025, 30/05/2025</t>
         </is>
       </c>
-      <c r="G50" s="55" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G50" s="56" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H50" s="43" t="n"/>
-      <c r="I50" s="43" t="n"/>
+      <c r="I50" s="43" t="inlineStr">
+        <is>
+          <t>ID 203</t>
+        </is>
+      </c>
       <c r="J50" s="43" t="inlineStr">
         <is>
           <t>Não</t>
@@ -15122,7 +15150,7 @@
           <t>31/03/2025</t>
         </is>
       </c>
-      <c r="G51" s="54" t="inlineStr">
+      <c r="G51" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -15168,7 +15196,7 @@
           <t>27/03/2025</t>
         </is>
       </c>
-      <c r="G52" s="54" t="inlineStr">
+      <c r="G52" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -15214,7 +15242,7 @@
           <t>21/08/2025</t>
         </is>
       </c>
-      <c r="G53" s="55" t="inlineStr">
+      <c r="G53" s="57" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -15229,7 +15257,7 @@
       <c r="K53" s="43" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="52" t="inlineStr">
+      <c r="A54" s="54" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -15256,7 +15284,7 @@
           <t>05/03/2025</t>
         </is>
       </c>
-      <c r="G54" s="54" t="inlineStr">
+      <c r="G54" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -15298,7 +15326,7 @@
           <t>09/04/2025</t>
         </is>
       </c>
-      <c r="G55" s="54" t="inlineStr">
+      <c r="G55" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -15317,7 +15345,7 @@
       <c r="K55" s="43" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="52" t="inlineStr">
+      <c r="A56" s="54" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -15334,13 +15362,17 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B56&amp;C56, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B56&amp;C56, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E56" s="49" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F56" s="43" t="n"/>
-      <c r="G56" s="55" t="inlineStr">
+      <c r="E56" s="44" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F56" s="43" t="inlineStr">
+        <is>
+          <t>15/12/2025</t>
+        </is>
+      </c>
+      <c r="G56" s="57" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -15355,7 +15387,7 @@
       <c r="K56" s="43" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="52" t="inlineStr">
+      <c r="A57" s="54" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -15382,7 +15414,7 @@
           <t>03/04/2025</t>
         </is>
       </c>
-      <c r="G57" s="54" t="inlineStr">
+      <c r="G57" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -15424,7 +15456,7 @@
           <t>27/03/2025</t>
         </is>
       </c>
-      <c r="G58" s="54" t="inlineStr">
+      <c r="G58" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -15471,7 +15503,7 @@
           <t>19/03/2025</t>
         </is>
       </c>
-      <c r="G59" s="54" t="inlineStr">
+      <c r="G59" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -15486,7 +15518,7 @@
       <c r="K59" s="43" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="53" t="inlineStr">
+      <c r="A60" s="55" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -15513,7 +15545,7 @@
           <t>19/08/2025</t>
         </is>
       </c>
-      <c r="G60" s="54" t="inlineStr">
+      <c r="G60" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -15555,7 +15587,7 @@
           <t>10/03/2025</t>
         </is>
       </c>
-      <c r="G61" s="54" t="inlineStr">
+      <c r="G61" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -15574,7 +15606,7 @@
       <c r="K61" s="43" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="53" t="inlineStr">
+      <c r="A62" s="55" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -15601,7 +15633,7 @@
           <t>22/04/2025</t>
         </is>
       </c>
-      <c r="G62" s="54" t="inlineStr">
+      <c r="G62" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -15624,7 +15656,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="52" t="inlineStr">
+      <c r="A63" s="54" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -15651,7 +15683,7 @@
           <t>01/04/2025</t>
         </is>
       </c>
-      <c r="G63" s="54" t="inlineStr">
+      <c r="G63" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -15666,7 +15698,7 @@
       <c r="K63" s="43" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="53" t="inlineStr">
+      <c r="A64" s="55" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -15693,7 +15725,7 @@
           <t>08/04/2025</t>
         </is>
       </c>
-      <c r="G64" s="54" t="inlineStr">
+      <c r="G64" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -15739,7 +15771,7 @@
           <t>12/05/2025</t>
         </is>
       </c>
-      <c r="G65" s="54" t="inlineStr">
+      <c r="G65" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -15793,7 +15825,7 @@
           <t>13/11/2025</t>
         </is>
       </c>
-      <c r="G66" s="55" t="inlineStr">
+      <c r="G66" s="57" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -15835,7 +15867,7 @@
           <t>20/03/2025</t>
         </is>
       </c>
-      <c r="G67" s="54" t="inlineStr">
+      <c r="G67" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -15881,7 +15913,7 @@
           <t>26/02/2025</t>
         </is>
       </c>
-      <c r="G68" s="55" t="inlineStr">
+      <c r="G68" s="57" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -15923,7 +15955,7 @@
           <t>16/04/2025</t>
         </is>
       </c>
-      <c r="G69" s="55" t="inlineStr">
+      <c r="G69" s="57" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -15938,7 +15970,7 @@
       <c r="K69" s="43" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" s="52" t="inlineStr">
+      <c r="A70" s="54" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -15961,7 +15993,7 @@
         </is>
       </c>
       <c r="F70" s="43" t="n"/>
-      <c r="G70" s="55" t="inlineStr">
+      <c r="G70" s="57" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -16141,7 +16173,7 @@
           <t>09/12/2025</t>
         </is>
       </c>
-      <c r="G2" s="55" t="inlineStr">
+      <c r="G2" s="57" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -16183,7 +16215,7 @@
           <t>31/03/2025</t>
         </is>
       </c>
-      <c r="G3" s="55" t="inlineStr">
+      <c r="G3" s="57" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -16225,7 +16257,7 @@
           <t>21/07/2025</t>
         </is>
       </c>
-      <c r="G4" s="54" t="inlineStr">
+      <c r="G4" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -16271,7 +16303,7 @@
           <t>27/03/2025</t>
         </is>
       </c>
-      <c r="G5" s="54" t="inlineStr">
+      <c r="G5" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -16317,7 +16349,7 @@
           <t>09/04/2025</t>
         </is>
       </c>
-      <c r="G6" s="55" t="inlineStr">
+      <c r="G6" s="57" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -16359,7 +16391,7 @@
           <t>21/03/2025</t>
         </is>
       </c>
-      <c r="G7" s="54" t="inlineStr">
+      <c r="G7" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -16395,13 +16427,17 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B8&amp;C8, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B8&amp;C8, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E8" s="49" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F8" s="43" t="n"/>
-      <c r="G8" s="55" t="inlineStr">
+      <c r="E8" s="44" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F8" s="43" t="inlineStr">
+        <is>
+          <t>12/12/2025</t>
+        </is>
+      </c>
+      <c r="G8" s="57" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -16439,7 +16475,7 @@
         </is>
       </c>
       <c r="F9" s="43" t="n"/>
-      <c r="G9" s="55" t="inlineStr">
+      <c r="G9" s="57" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -16481,7 +16517,7 @@
           <t>06/03/2025</t>
         </is>
       </c>
-      <c r="G10" s="54" t="inlineStr">
+      <c r="G10" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -16531,7 +16567,7 @@
           <t>10/04/2025</t>
         </is>
       </c>
-      <c r="G11" s="54" t="inlineStr">
+      <c r="G11" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -16573,7 +16609,7 @@
           <t>10/04/2025</t>
         </is>
       </c>
-      <c r="G12" s="54" t="inlineStr">
+      <c r="G12" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -16615,7 +16651,7 @@
           <t>09/07/2025</t>
         </is>
       </c>
-      <c r="G13" s="54" t="inlineStr">
+      <c r="G13" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -16657,12 +16693,12 @@
           <t>10/04/2025, 09/05/2025</t>
         </is>
       </c>
-      <c r="G14" s="54" t="inlineStr">
+      <c r="G14" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
-      <c r="H14" s="43" t="inlineStr">
+      <c r="H14" s="53" t="inlineStr">
         <is>
           <t>Excluir ID 174</t>
         </is>
@@ -16703,7 +16739,7 @@
           <t>11/04/2025</t>
         </is>
       </c>
-      <c r="G15" s="54" t="inlineStr">
+      <c r="G15" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -16745,9 +16781,9 @@
           <t>15/05/2025</t>
         </is>
       </c>
-      <c r="G16" s="55" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G16" s="56" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H16" s="43" t="n"/>
@@ -16787,7 +16823,7 @@
           <t>20/03/2025</t>
         </is>
       </c>
-      <c r="G17" s="54" t="inlineStr">
+      <c r="G17" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -16829,7 +16865,7 @@
           <t>22/08/2025</t>
         </is>
       </c>
-      <c r="G18" s="54" t="inlineStr">
+      <c r="G18" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -16867,7 +16903,7 @@
         </is>
       </c>
       <c r="F19" s="43" t="n"/>
-      <c r="G19" s="55" t="inlineStr">
+      <c r="G19" s="57" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -16909,7 +16945,7 @@
           <t>10/03/2025</t>
         </is>
       </c>
-      <c r="G20" s="54" t="inlineStr">
+      <c r="G20" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -16924,7 +16960,7 @@
       <c r="K20" s="43" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="52" t="inlineStr">
+      <c r="A21" s="54" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -16951,7 +16987,7 @@
           <t>19/03/2025</t>
         </is>
       </c>
-      <c r="G21" s="54" t="inlineStr">
+      <c r="G21" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -16970,7 +17006,7 @@
       <c r="K21" s="43" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="52" t="inlineStr">
+      <c r="A22" s="54" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -16997,7 +17033,7 @@
           <t>08/08/2025</t>
         </is>
       </c>
-      <c r="G22" s="54" t="inlineStr">
+      <c r="G22" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -17039,7 +17075,7 @@
           <t>15/04/2025</t>
         </is>
       </c>
-      <c r="G23" s="55" t="inlineStr">
+      <c r="G23" s="57" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -17054,7 +17090,7 @@
       <c r="K23" s="43" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="53" t="inlineStr">
+      <c r="A24" s="55" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -17081,7 +17117,7 @@
           <t>18/11/2025</t>
         </is>
       </c>
-      <c r="G24" s="55" t="inlineStr">
+      <c r="G24" s="57" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -17096,7 +17132,7 @@
       <c r="K24" s="43" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="53" t="inlineStr">
+      <c r="A25" s="55" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -17123,7 +17159,7 @@
           <t>20/08/2025</t>
         </is>
       </c>
-      <c r="G25" s="54" t="inlineStr">
+      <c r="G25" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -17138,7 +17174,7 @@
       <c r="K25" s="43" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="53" t="inlineStr">
+      <c r="A26" s="55" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -17165,7 +17201,7 @@
           <t>16/04/2025</t>
         </is>
       </c>
-      <c r="G26" s="54" t="inlineStr">
+      <c r="G26" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -17180,7 +17216,7 @@
       <c r="K26" s="43" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="53" t="inlineStr">
+      <c r="A27" s="55" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -17207,7 +17243,7 @@
           <t>09/07/2025</t>
         </is>
       </c>
-      <c r="G27" s="54" t="inlineStr">
+      <c r="G27" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -17222,7 +17258,7 @@
       <c r="K27" s="43" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="53" t="inlineStr">
+      <c r="A28" s="55" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -17249,7 +17285,7 @@
           <t>03/07/2025</t>
         </is>
       </c>
-      <c r="G28" s="54" t="inlineStr">
+      <c r="G28" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -17264,7 +17300,7 @@
       <c r="K28" s="43" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="53" t="inlineStr">
+      <c r="A29" s="55" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -17291,7 +17327,7 @@
           <t>20/03/2025</t>
         </is>
       </c>
-      <c r="G29" s="54" t="inlineStr">
+      <c r="G29" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -17310,7 +17346,7 @@
       <c r="K29" s="43" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="53" t="inlineStr">
+      <c r="A30" s="55" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -17337,7 +17373,7 @@
           <t>01/04/2025</t>
         </is>
       </c>
-      <c r="G30" s="54" t="inlineStr">
+      <c r="G30" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -17356,7 +17392,7 @@
       <c r="K30" s="43" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="53" t="inlineStr">
+      <c r="A31" s="55" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -17383,7 +17419,7 @@
           <t>17/03/2025</t>
         </is>
       </c>
-      <c r="G31" s="54" t="inlineStr">
+      <c r="G31" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -17402,7 +17438,7 @@
       <c r="K31" s="43" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="53" t="inlineStr">
+      <c r="A32" s="55" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -17429,7 +17465,7 @@
           <t>02/09/2025</t>
         </is>
       </c>
-      <c r="G32" s="54" t="inlineStr">
+      <c r="G32" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -17471,7 +17507,7 @@
         </is>
       </c>
       <c r="F33" s="43" t="n"/>
-      <c r="G33" s="55" t="inlineStr">
+      <c r="G33" s="57" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -17513,7 +17549,7 @@
           <t>09/12/2025</t>
         </is>
       </c>
-      <c r="G34" s="55" t="inlineStr">
+      <c r="G34" s="57" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -17559,7 +17595,7 @@
           <t>08/04/2025</t>
         </is>
       </c>
-      <c r="G35" s="55" t="inlineStr">
+      <c r="G35" s="57" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -17601,7 +17637,7 @@
           <t>24/03/2025</t>
         </is>
       </c>
-      <c r="G36" s="54" t="inlineStr">
+      <c r="G36" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -17643,7 +17679,7 @@
           <t>02/04/2025</t>
         </is>
       </c>
-      <c r="G37" s="54" t="inlineStr">
+      <c r="G37" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -17685,7 +17721,7 @@
           <t>19/03/2025</t>
         </is>
       </c>
-      <c r="G38" s="55" t="inlineStr">
+      <c r="G38" s="57" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -17700,7 +17736,7 @@
       <c r="K38" s="43" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="52" t="inlineStr">
+      <c r="A39" s="54" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -17727,7 +17763,7 @@
           <t>08/04/2025</t>
         </is>
       </c>
-      <c r="G39" s="54" t="inlineStr">
+      <c r="G39" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -17769,7 +17805,7 @@
           <t>16/07/2025</t>
         </is>
       </c>
-      <c r="G40" s="55" t="inlineStr">
+      <c r="G40" s="57" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -17807,7 +17843,7 @@
         </is>
       </c>
       <c r="F41" s="43" t="n"/>
-      <c r="G41" s="55" t="inlineStr">
+      <c r="G41" s="57" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -17822,7 +17858,7 @@
       <c r="K41" s="43" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="52" t="inlineStr">
+      <c r="A42" s="54" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -17849,7 +17885,7 @@
           <t>09/04/2025</t>
         </is>
       </c>
-      <c r="G42" s="54" t="inlineStr">
+      <c r="G42" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -17864,7 +17900,7 @@
       <c r="K42" s="43" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="52" t="inlineStr">
+      <c r="A43" s="54" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -17891,7 +17927,7 @@
           <t>04/04/2025</t>
         </is>
       </c>
-      <c r="G43" s="54" t="inlineStr">
+      <c r="G43" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -17933,7 +17969,7 @@
           <t>11/11/2025</t>
         </is>
       </c>
-      <c r="G44" s="55" t="inlineStr">
+      <c r="G44" s="57" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -17948,7 +17984,7 @@
       <c r="K44" s="43" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="52" t="inlineStr">
+      <c r="A45" s="54" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -17975,7 +18011,7 @@
           <t>02/04/2025</t>
         </is>
       </c>
-      <c r="G45" s="54" t="inlineStr">
+      <c r="G45" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -17990,7 +18026,7 @@
       <c r="K45" s="43" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="53" t="inlineStr">
+      <c r="A46" s="55" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -18017,7 +18053,7 @@
           <t>26/03/2025</t>
         </is>
       </c>
-      <c r="G46" s="54" t="inlineStr">
+      <c r="G46" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -18063,7 +18099,7 @@
           <t>26/11/2025</t>
         </is>
       </c>
-      <c r="G47" s="55" t="inlineStr">
+      <c r="G47" s="57" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -18078,7 +18114,7 @@
       <c r="K47" s="43" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="52" t="inlineStr">
+      <c r="A48" s="54" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -18105,7 +18141,7 @@
           <t>11/03/2025</t>
         </is>
       </c>
-      <c r="G48" s="54" t="inlineStr">
+      <c r="G48" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -18147,7 +18183,7 @@
           <t>06/08/2025</t>
         </is>
       </c>
-      <c r="G49" s="54" t="inlineStr">
+      <c r="G49" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -18193,7 +18229,7 @@
           <t>16/04/2025</t>
         </is>
       </c>
-      <c r="G50" s="55" t="inlineStr">
+      <c r="G50" s="57" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -18235,7 +18271,7 @@
           <t>04/04/2025</t>
         </is>
       </c>
-      <c r="G51" s="54" t="inlineStr">
+      <c r="G51" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -18281,7 +18317,7 @@
           <t>27/03/2025</t>
         </is>
       </c>
-      <c r="G52" s="54" t="inlineStr">
+      <c r="G52" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -18327,7 +18363,7 @@
           <t>21/08/2025</t>
         </is>
       </c>
-      <c r="G53" s="55" t="inlineStr">
+      <c r="G53" s="57" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -18342,7 +18378,7 @@
       <c r="K53" s="43" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="52" t="inlineStr">
+      <c r="A54" s="54" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -18369,7 +18405,7 @@
           <t>12/03/2025</t>
         </is>
       </c>
-      <c r="G54" s="54" t="inlineStr">
+      <c r="G54" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -18411,7 +18447,7 @@
           <t>09/04/2025</t>
         </is>
       </c>
-      <c r="G55" s="54" t="inlineStr">
+      <c r="G55" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -18430,7 +18466,7 @@
       <c r="K55" s="43" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="52" t="inlineStr">
+      <c r="A56" s="54" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -18447,13 +18483,17 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B56&amp;C56, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B56&amp;C56, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E56" s="49" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F56" s="43" t="n"/>
-      <c r="G56" s="55" t="inlineStr">
+      <c r="E56" s="44" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F56" s="43" t="inlineStr">
+        <is>
+          <t>15/12/2025</t>
+        </is>
+      </c>
+      <c r="G56" s="57" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -18468,7 +18508,7 @@
       <c r="K56" s="43" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="52" t="inlineStr">
+      <c r="A57" s="54" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -18495,7 +18535,7 @@
           <t>12/06/2025</t>
         </is>
       </c>
-      <c r="G57" s="54" t="inlineStr">
+      <c r="G57" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -18533,7 +18573,7 @@
         </is>
       </c>
       <c r="F58" s="43" t="n"/>
-      <c r="G58" s="55" t="inlineStr">
+      <c r="G58" s="57" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -18575,7 +18615,7 @@
           <t>20/03/2025</t>
         </is>
       </c>
-      <c r="G59" s="54" t="inlineStr">
+      <c r="G59" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -18590,7 +18630,7 @@
       <c r="K59" s="43" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="53" t="inlineStr">
+      <c r="A60" s="55" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -18617,7 +18657,7 @@
           <t>19/08/2025</t>
         </is>
       </c>
-      <c r="G60" s="54" t="inlineStr">
+      <c r="G60" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -18659,7 +18699,7 @@
           <t>10/03/2025</t>
         </is>
       </c>
-      <c r="G61" s="54" t="inlineStr">
+      <c r="G61" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -18674,7 +18714,7 @@
       <c r="K61" s="43" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="53" t="inlineStr">
+      <c r="A62" s="55" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -18701,7 +18741,7 @@
           <t>09/05/2025</t>
         </is>
       </c>
-      <c r="G62" s="54" t="inlineStr">
+      <c r="G62" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -18716,7 +18756,7 @@
       <c r="K62" s="43" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="52" t="inlineStr">
+      <c r="A63" s="54" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -18743,7 +18783,7 @@
           <t>01/04/2025</t>
         </is>
       </c>
-      <c r="G63" s="54" t="inlineStr">
+      <c r="G63" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -18758,7 +18798,7 @@
       <c r="K63" s="43" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="53" t="inlineStr">
+      <c r="A64" s="55" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -18785,7 +18825,7 @@
           <t>08/04/2025</t>
         </is>
       </c>
-      <c r="G64" s="54" t="inlineStr">
+      <c r="G64" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -18827,7 +18867,7 @@
           <t>12/05/2025</t>
         </is>
       </c>
-      <c r="G65" s="54" t="inlineStr">
+      <c r="G65" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -18881,7 +18921,7 @@
           <t>29/07/2025</t>
         </is>
       </c>
-      <c r="G66" s="54" t="inlineStr">
+      <c r="G66" s="56" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -18935,7 +18975,7 @@
           <t>20/03/2025</t>
         </is>
       </c>
-      <c r="G67" s="55" t="inlineStr">
+      <c r="G67" s="57" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -18977,7 +19017,7 @@
           <t>26/02/2025</t>
         </is>
       </c>
-      <c r="G68" s="55" t="inlineStr">
+      <c r="G68" s="57" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -19019,7 +19059,7 @@
           <t>17/06/2025</t>
         </is>
       </c>
-      <c r="G69" s="55" t="inlineStr">
+      <c r="G69" s="57" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -19034,7 +19074,7 @@
       <c r="K69" s="43" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" s="52" t="inlineStr">
+      <c r="A70" s="54" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -19057,7 +19097,7 @@
         </is>
       </c>
       <c r="F70" s="43" t="n"/>
-      <c r="G70" s="55" t="inlineStr">
+      <c r="G70" s="57" t="inlineStr">
         <is>
           <t>Não</t>
         </is>

--- a/scripts/Monitoramento/outputs/GRS/0 - Monitoramento Form 1, 2 e 3.xlsx
+++ b/scripts/Monitoramento/outputs/GRS/0 - Monitoramento Form 1, 2 e 3.xlsx
@@ -554,7 +554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -700,9 +700,6 @@
     <xf numFmtId="0" fontId="14" fillId="34" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="43" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -713,11 +710,17 @@
     <xf numFmtId="0" fontId="14" fillId="39" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="43" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="22" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="27" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10136,14 +10139,14 @@
           <t>Edson Batista de Castro</t>
         </is>
       </c>
-      <c r="E11" s="51" t="inlineStr">
-        <is>
-          <t>Duplicado</t>
+      <c r="E11" s="44" t="inlineStr">
+        <is>
+          <t>Enviado</t>
         </is>
       </c>
       <c r="F11" s="43" t="inlineStr">
         <is>
-          <t>10/04/2025, 15/05/2025</t>
+          <t>10/04/2025</t>
         </is>
       </c>
       <c r="G11" s="47" t="inlineStr">
@@ -10151,7 +10154,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="H11" s="52" t="inlineStr">
+      <c r="H11" s="51" t="inlineStr">
         <is>
           <t>excluir ID 164  - irá excluir todas pelo menos é o que foi informado</t>
         </is>
@@ -10160,10 +10163,14 @@
       <c r="J11" s="43" t="n"/>
       <c r="K11" s="43" t="inlineStr">
         <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="L11" s="43" t="n"/>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="L11" s="43" t="inlineStr">
+        <is>
+          <t>Deletado 164</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="50" t="inlineStr">
@@ -10184,14 +10191,14 @@
           <t>Gabriela Fernanda Sandri</t>
         </is>
       </c>
-      <c r="E12" s="51" t="inlineStr">
-        <is>
-          <t>Duplicado</t>
+      <c r="E12" s="44" t="inlineStr">
+        <is>
+          <t>Enviado</t>
         </is>
       </c>
       <c r="F12" s="43" t="inlineStr">
         <is>
-          <t>10/04/2025, 15/05/2025</t>
+          <t>10/04/2025</t>
         </is>
       </c>
       <c r="G12" s="47" t="inlineStr">
@@ -10199,7 +10206,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="H12" s="52" t="inlineStr">
+      <c r="H12" s="51" t="inlineStr">
         <is>
           <t>excluir ID 164</t>
         </is>
@@ -10208,10 +10215,14 @@
       <c r="J12" s="43" t="n"/>
       <c r="K12" s="43" t="inlineStr">
         <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="L12" s="43" t="n"/>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="L12" s="43" t="inlineStr">
+        <is>
+          <t>Deletado 164</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="50" t="inlineStr">
@@ -10232,14 +10243,14 @@
           <t>Eduarda Rohden Donasolo</t>
         </is>
       </c>
-      <c r="E13" s="51" t="inlineStr">
-        <is>
-          <t>Duplicado</t>
+      <c r="E13" s="44" t="inlineStr">
+        <is>
+          <t>Enviado</t>
         </is>
       </c>
       <c r="F13" s="43" t="inlineStr">
         <is>
-          <t>10/04/2025, 15/05/2025</t>
+          <t>10/04/2025</t>
         </is>
       </c>
       <c r="G13" s="47" t="inlineStr">
@@ -10247,7 +10258,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="H13" s="52" t="inlineStr">
+      <c r="H13" s="51" t="inlineStr">
         <is>
           <t>excluir ID 164</t>
         </is>
@@ -10256,10 +10267,14 @@
       <c r="J13" s="43" t="n"/>
       <c r="K13" s="43" t="inlineStr">
         <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="L13" s="43" t="n"/>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="L13" s="43" t="inlineStr">
+        <is>
+          <t>Deletado 164</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="50" t="inlineStr">
@@ -10280,14 +10295,14 @@
           <t>Mauricio Pinto de Lima</t>
         </is>
       </c>
-      <c r="E14" s="51" t="inlineStr">
-        <is>
-          <t>Duplicado</t>
+      <c r="E14" s="44" t="inlineStr">
+        <is>
+          <t>Enviado</t>
         </is>
       </c>
       <c r="F14" s="43" t="inlineStr">
         <is>
-          <t>10/04/2025, 15/05/2025</t>
+          <t>10/04/2025</t>
         </is>
       </c>
       <c r="G14" s="47" t="inlineStr">
@@ -10295,7 +10310,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="H14" s="53" t="inlineStr">
+      <c r="H14" s="52" t="inlineStr">
         <is>
           <t>excluir ID 164</t>
         </is>
@@ -10304,10 +10319,14 @@
       <c r="J14" s="43" t="n"/>
       <c r="K14" s="43" t="inlineStr">
         <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="L14" s="43" t="n"/>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="L14" s="43" t="inlineStr">
+        <is>
+          <t>Deletado 164</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="50" t="inlineStr">
@@ -10328,14 +10347,14 @@
           <t xml:space="preserve">Débora Laize Lampert Gnass </t>
         </is>
       </c>
-      <c r="E15" s="51" t="inlineStr">
-        <is>
-          <t>Duplicado</t>
+      <c r="E15" s="44" t="inlineStr">
+        <is>
+          <t>Enviado</t>
         </is>
       </c>
       <c r="F15" s="43" t="inlineStr">
         <is>
-          <t>10/04/2025, 15/05/2025</t>
+          <t>10/04/2025</t>
         </is>
       </c>
       <c r="G15" s="47" t="inlineStr">
@@ -10343,7 +10362,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="H15" s="52" t="inlineStr">
+      <c r="H15" s="51" t="inlineStr">
         <is>
           <t>excluir ID 164</t>
         </is>
@@ -10352,10 +10371,14 @@
       <c r="J15" s="43" t="n"/>
       <c r="K15" s="43" t="inlineStr">
         <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="L15" s="43" t="n"/>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="L15" s="43" t="inlineStr">
+        <is>
+          <t>Deletado 164</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="50" t="inlineStr">
@@ -10372,14 +10395,14 @@
         <v>6</v>
       </c>
       <c r="D16" s="43" t="n"/>
-      <c r="E16" s="51" t="inlineStr">
-        <is>
-          <t>Duplicado</t>
+      <c r="E16" s="44" t="inlineStr">
+        <is>
+          <t>Enviado</t>
         </is>
       </c>
       <c r="F16" s="43" t="inlineStr">
         <is>
-          <t>10/04/2025, 15/05/2025</t>
+          <t>10/04/2025</t>
         </is>
       </c>
       <c r="G16" s="47" t="inlineStr">
@@ -10387,7 +10410,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="H16" s="52" t="inlineStr">
+      <c r="H16" s="51" t="inlineStr">
         <is>
           <t>excluir ID 164</t>
         </is>
@@ -10396,10 +10419,14 @@
       <c r="J16" s="43" t="n"/>
       <c r="K16" s="43" t="inlineStr">
         <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="L16" s="43" t="n"/>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="L16" s="43" t="inlineStr">
+        <is>
+          <t>Deletado 164</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="46" t="inlineStr">
@@ -10534,7 +10561,7 @@
       <c r="L19" s="43" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="54" t="inlineStr">
+      <c r="A20" s="53" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -10622,7 +10649,7 @@
       <c r="L21" s="43" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="54" t="inlineStr">
+      <c r="A22" s="53" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -10714,7 +10741,7 @@
       <c r="L23" s="43" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="55" t="inlineStr">
+      <c r="A24" s="54" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -10758,7 +10785,7 @@
       <c r="L24" s="43" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="55" t="inlineStr">
+      <c r="A25" s="54" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -10806,7 +10833,7 @@
       <c r="L25" s="43" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="55" t="inlineStr">
+      <c r="A26" s="54" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -10854,7 +10881,7 @@
       <c r="L26" s="43" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="55" t="inlineStr">
+      <c r="A27" s="54" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -10902,7 +10929,7 @@
       <c r="L27" s="43" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="55" t="inlineStr">
+      <c r="A28" s="54" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -10950,7 +10977,7 @@
       <c r="L28" s="43" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="55" t="inlineStr">
+      <c r="A29" s="54" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -10998,7 +11025,7 @@
       <c r="L29" s="43" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="55" t="inlineStr">
+      <c r="A30" s="54" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -11046,7 +11073,7 @@
       <c r="L30" s="43" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="55" t="inlineStr">
+      <c r="A31" s="54" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -11094,7 +11121,7 @@
       <c r="L31" s="43" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="55" t="inlineStr">
+      <c r="A32" s="54" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -11427,7 +11454,7 @@
       <c r="L38" s="43" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="54" t="inlineStr">
+      <c r="A39" s="53" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -11489,19 +11516,19 @@
           <t>César Piva Glinglani</t>
         </is>
       </c>
-      <c r="E40" s="44" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E40" s="55" t="inlineStr">
+        <is>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F40" s="43" t="inlineStr">
         <is>
-          <t>16/07/2025</t>
+          <t>16/07/2025, 22/12/2025</t>
         </is>
       </c>
       <c r="G40" s="47" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="H40" s="43" t="n"/>
@@ -11555,7 +11582,7 @@
       <c r="L41" s="43" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="54" t="inlineStr">
+      <c r="A42" s="53" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -11599,7 +11626,7 @@
       <c r="L42" s="43" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="54" t="inlineStr">
+      <c r="A43" s="53" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -11687,7 +11714,7 @@
       <c r="L44" s="43" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="54" t="inlineStr">
+      <c r="A45" s="53" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -11731,7 +11758,7 @@
       <c r="L45" s="43" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="55" t="inlineStr">
+      <c r="A46" s="54" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -11823,7 +11850,7 @@
       <c r="L47" s="43" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="54" t="inlineStr">
+      <c r="A48" s="53" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -12103,7 +12130,7 @@
       <c r="L53" s="43" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="54" t="inlineStr">
+      <c r="A54" s="53" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -12199,7 +12226,7 @@
       <c r="L55" s="43" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="54" t="inlineStr">
+      <c r="A56" s="53" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -12243,7 +12270,7 @@
       <c r="L56" s="43" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="54" t="inlineStr">
+      <c r="A57" s="53" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -12371,7 +12398,7 @@
       <c r="L59" s="43" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="55" t="inlineStr">
+      <c r="A60" s="54" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -12467,7 +12494,7 @@
       <c r="L61" s="43" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="55" t="inlineStr">
+      <c r="A62" s="54" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -12515,7 +12542,7 @@
       <c r="L62" s="43" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="54" t="inlineStr">
+      <c r="A63" s="53" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -12559,7 +12586,7 @@
       <c r="L63" s="43" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="55" t="inlineStr">
+      <c r="A64" s="54" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -12843,7 +12870,7 @@
       <c r="L69" s="43" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" s="54" t="inlineStr">
+      <c r="A70" s="53" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -12954,8 +12981,8 @@
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
-    <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="51" customWidth="1" min="6" max="6"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="344" customWidth="1" min="8" max="8"/>
     <col width="38" customWidth="1" min="9" max="9"/>
@@ -13558,14 +13585,14 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B14&amp;C14, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B14&amp;C14, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E14" s="51" t="inlineStr">
-        <is>
-          <t>Duplicado</t>
+      <c r="E14" s="44" t="inlineStr">
+        <is>
+          <t>Enviado</t>
         </is>
       </c>
       <c r="F14" s="43" t="inlineStr">
         <is>
-          <t>10/04/2025, 10/04/2025, 09/05/2025, 10/06/2025</t>
+          <t>10/04/2025</t>
         </is>
       </c>
       <c r="G14" s="56" t="inlineStr">
@@ -13578,13 +13605,21 @@
           <t>Excluir ID 183, ID 200 e ID 206</t>
         </is>
       </c>
-      <c r="I14" s="43" t="n"/>
+      <c r="I14" s="43" t="inlineStr">
+        <is>
+          <t>183, 200 e 206</t>
+        </is>
+      </c>
       <c r="J14" s="43" t="inlineStr">
         <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K14" s="43" t="n"/>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="K14" s="43" t="inlineStr">
+        <is>
+          <t>Deletados 183; 200 e 206</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="50" t="inlineStr">
@@ -13835,7 +13870,7 @@
       <c r="K20" s="43" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="54" t="inlineStr">
+      <c r="A21" s="53" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -13877,7 +13912,7 @@
       <c r="K21" s="43" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="54" t="inlineStr">
+      <c r="A22" s="53" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -13961,7 +13996,7 @@
       <c r="K23" s="43" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="55" t="inlineStr">
+      <c r="A24" s="54" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -14003,7 +14038,7 @@
       <c r="K24" s="43" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="55" t="inlineStr">
+      <c r="A25" s="54" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -14049,7 +14084,7 @@
       <c r="K25" s="43" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="55" t="inlineStr">
+      <c r="A26" s="54" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -14095,7 +14130,7 @@
       <c r="K26" s="43" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="55" t="inlineStr">
+      <c r="A27" s="54" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -14141,7 +14176,7 @@
       <c r="K27" s="43" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="55" t="inlineStr">
+      <c r="A28" s="54" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -14183,7 +14218,7 @@
       <c r="K28" s="43" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="55" t="inlineStr">
+      <c r="A29" s="54" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -14229,7 +14264,7 @@
       <c r="K29" s="43" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="55" t="inlineStr">
+      <c r="A30" s="54" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -14275,7 +14310,7 @@
       <c r="K30" s="43" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="55" t="inlineStr">
+      <c r="A31" s="54" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -14321,7 +14356,7 @@
       <c r="K31" s="43" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="55" t="inlineStr">
+      <c r="A32" s="54" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -14611,7 +14646,7 @@
       <c r="K38" s="43" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="54" t="inlineStr">
+      <c r="A39" s="53" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -14652,7 +14687,7 @@
       </c>
       <c r="K39" s="43" t="n"/>
     </row>
-    <row r="40">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="48" t="inlineStr">
         <is>
           <t>Gustavo</t>
@@ -14670,25 +14705,37 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B40&amp;C40, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B40&amp;C40, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E40" s="49" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F40" s="43" t="n"/>
+      <c r="E40" s="44" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F40" s="43" t="inlineStr">
+        <is>
+          <t>22/12/2025</t>
+        </is>
+      </c>
       <c r="G40" s="57" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
       </c>
       <c r="H40" s="43" t="n"/>
-      <c r="I40" s="43" t="n"/>
+      <c r="I40" s="58" t="inlineStr">
+        <is>
+          <t>ID 270</t>
+        </is>
+      </c>
       <c r="J40" s="43" t="inlineStr">
         <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K40" s="43" t="n"/>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="K40" s="43" t="inlineStr">
+        <is>
+          <t>Deletado 270</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="50" t="inlineStr">
@@ -14729,7 +14776,7 @@
       <c r="K41" s="43" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="54" t="inlineStr">
+      <c r="A42" s="53" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -14771,7 +14818,7 @@
       <c r="K42" s="43" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="54" t="inlineStr">
+      <c r="A43" s="53" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -14855,7 +14902,7 @@
       <c r="K44" s="43" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="54" t="inlineStr">
+      <c r="A45" s="53" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -14897,7 +14944,7 @@
       <c r="K45" s="43" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="55" t="inlineStr">
+      <c r="A46" s="54" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -14985,7 +15032,7 @@
       <c r="K47" s="43" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="54" t="inlineStr">
+      <c r="A48" s="53" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -15044,14 +15091,14 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B49&amp;C49, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B49&amp;C49, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E49" s="51" t="inlineStr">
-        <is>
-          <t>Duplicado</t>
+      <c r="E49" s="44" t="inlineStr">
+        <is>
+          <t>Enviado</t>
         </is>
       </c>
       <c r="F49" s="43" t="inlineStr">
         <is>
-          <t>06/08/2025, 20/08/2025</t>
+          <t>20/08/2025</t>
         </is>
       </c>
       <c r="G49" s="57" t="inlineStr">
@@ -15071,10 +15118,14 @@
       </c>
       <c r="J49" s="43" t="inlineStr">
         <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K49" s="43" t="n"/>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="K49" s="43" t="inlineStr">
+        <is>
+          <t>Deletado 215</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="48" t="inlineStr">
@@ -15094,14 +15145,14 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B50&amp;C50, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B50&amp;C50, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E50" s="51" t="inlineStr">
-        <is>
-          <t>Duplicado</t>
+      <c r="E50" s="44" t="inlineStr">
+        <is>
+          <t>Enviado</t>
         </is>
       </c>
       <c r="F50" s="43" t="inlineStr">
         <is>
-          <t>16/04/2025, 30/05/2025</t>
+          <t>16/04/2025</t>
         </is>
       </c>
       <c r="G50" s="56" t="inlineStr">
@@ -15117,10 +15168,14 @@
       </c>
       <c r="J50" s="43" t="inlineStr">
         <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K50" s="43" t="n"/>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="K50" s="43" t="inlineStr">
+        <is>
+          <t>Deletado 203</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="42" t="inlineStr">
@@ -15257,7 +15312,7 @@
       <c r="K53" s="43" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="54" t="inlineStr">
+      <c r="A54" s="53" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -15345,7 +15400,7 @@
       <c r="K55" s="43" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="54" t="inlineStr">
+      <c r="A56" s="53" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -15387,7 +15442,7 @@
       <c r="K56" s="43" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="54" t="inlineStr">
+      <c r="A57" s="53" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -15518,7 +15573,7 @@
       <c r="K59" s="43" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="55" t="inlineStr">
+      <c r="A60" s="54" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -15606,7 +15661,7 @@
       <c r="K61" s="43" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="55" t="inlineStr">
+      <c r="A62" s="54" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -15656,7 +15711,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="54" t="inlineStr">
+      <c r="A63" s="53" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -15698,7 +15753,7 @@
       <c r="K63" s="43" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="55" t="inlineStr">
+      <c r="A64" s="54" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -15970,7 +16025,7 @@
       <c r="K69" s="43" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" s="54" t="inlineStr">
+      <c r="A70" s="53" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -16683,14 +16738,14 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B14&amp;C14, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B14&amp;C14, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E14" s="51" t="inlineStr">
-        <is>
-          <t>Duplicado</t>
+      <c r="E14" s="44" t="inlineStr">
+        <is>
+          <t>Enviado</t>
         </is>
       </c>
       <c r="F14" s="43" t="inlineStr">
         <is>
-          <t>10/04/2025, 09/05/2025</t>
+          <t>10/04/2025</t>
         </is>
       </c>
       <c r="G14" s="56" t="inlineStr">
@@ -16698,18 +16753,22 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="H14" s="53" t="inlineStr">
-        <is>
-          <t>Excluir ID 174</t>
-        </is>
-      </c>
-      <c r="I14" s="43" t="n"/>
+      <c r="H14" s="52" t="n"/>
+      <c r="I14" s="43" t="inlineStr">
+        <is>
+          <t>ID 174</t>
+        </is>
+      </c>
       <c r="J14" s="43" t="inlineStr">
         <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K14" s="43" t="n"/>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="K14" s="43" t="inlineStr">
+        <is>
+          <t>Deletado 174</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="50" t="inlineStr">
@@ -16960,7 +17019,7 @@
       <c r="K20" s="43" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="54" t="inlineStr">
+      <c r="A21" s="53" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -17006,7 +17065,7 @@
       <c r="K21" s="43" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="54" t="inlineStr">
+      <c r="A22" s="53" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -17090,7 +17149,7 @@
       <c r="K23" s="43" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="55" t="inlineStr">
+      <c r="A24" s="54" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -17132,7 +17191,7 @@
       <c r="K24" s="43" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="55" t="inlineStr">
+      <c r="A25" s="54" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -17174,7 +17233,7 @@
       <c r="K25" s="43" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="55" t="inlineStr">
+      <c r="A26" s="54" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -17216,7 +17275,7 @@
       <c r="K26" s="43" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="55" t="inlineStr">
+      <c r="A27" s="54" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -17258,7 +17317,7 @@
       <c r="K27" s="43" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="55" t="inlineStr">
+      <c r="A28" s="54" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -17300,7 +17359,7 @@
       <c r="K28" s="43" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="55" t="inlineStr">
+      <c r="A29" s="54" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -17346,7 +17405,7 @@
       <c r="K29" s="43" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="55" t="inlineStr">
+      <c r="A30" s="54" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -17392,7 +17451,7 @@
       <c r="K30" s="43" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="55" t="inlineStr">
+      <c r="A31" s="54" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -17438,7 +17497,7 @@
       <c r="K31" s="43" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="55" t="inlineStr">
+      <c r="A32" s="54" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -17736,7 +17795,7 @@
       <c r="K38" s="43" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="54" t="inlineStr">
+      <c r="A39" s="53" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -17795,14 +17854,14 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B40&amp;C40, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B40&amp;C40, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E40" s="44" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E40" s="55" t="inlineStr">
+        <is>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F40" s="43" t="inlineStr">
         <is>
-          <t>16/07/2025</t>
+          <t>16/07/2025, 22/12/2025</t>
         </is>
       </c>
       <c r="G40" s="57" t="inlineStr">
@@ -17858,7 +17917,7 @@
       <c r="K41" s="43" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="54" t="inlineStr">
+      <c r="A42" s="53" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -17900,7 +17959,7 @@
       <c r="K42" s="43" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="54" t="inlineStr">
+      <c r="A43" s="53" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -17984,7 +18043,7 @@
       <c r="K44" s="43" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="54" t="inlineStr">
+      <c r="A45" s="53" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -18026,7 +18085,7 @@
       <c r="K45" s="43" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="55" t="inlineStr">
+      <c r="A46" s="54" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -18114,7 +18173,7 @@
       <c r="K47" s="43" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="54" t="inlineStr">
+      <c r="A48" s="53" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -18378,7 +18437,7 @@
       <c r="K53" s="43" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="54" t="inlineStr">
+      <c r="A54" s="53" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -18466,7 +18525,7 @@
       <c r="K55" s="43" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="54" t="inlineStr">
+      <c r="A56" s="53" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -18508,7 +18567,7 @@
       <c r="K56" s="43" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="54" t="inlineStr">
+      <c r="A57" s="53" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -18630,7 +18689,7 @@
       <c r="K59" s="43" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="55" t="inlineStr">
+      <c r="A60" s="54" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -18714,7 +18773,7 @@
       <c r="K61" s="43" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="55" t="inlineStr">
+      <c r="A62" s="54" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -18756,7 +18815,7 @@
       <c r="K62" s="43" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="54" t="inlineStr">
+      <c r="A63" s="53" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -18798,7 +18857,7 @@
       <c r="K63" s="43" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="55" t="inlineStr">
+      <c r="A64" s="54" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -19074,7 +19133,7 @@
       <c r="K69" s="43" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" s="54" t="inlineStr">
+      <c r="A70" s="53" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
